--- a/Week 3 Assignment_Simple Text File and Linked Lists/data/Data Sheet.xlsx
+++ b/Week 3 Assignment_Simple Text File and Linked Lists/data/Data Sheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedillo02\Source\Repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AA643D-7517-406A-9177-025012BD48EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191AFFF-225F-4B8E-982E-8A4EEBB2D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rooms" sheetId="1" r:id="rId1"/>
     <sheet name="Items" sheetId="2" r:id="rId2"/>
+    <sheet name="UnitTestingData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,26 +31,35 @@
   <connection id="1" xr16:uid="{4C6AA9E1-8172-4EC5-B671-5905627E9369}" name="item_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\item_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" xr16:uid="{EB932CA5-92BA-46AE-82AA-E9F012A5E1C2}" name="room_schema" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{6BD4C010-9A68-4078-BCCB-50E9E1DC129B}" name="item_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\Schema\item_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{EB932CA5-92BA-46AE-82AA-E9F012A5E1C2}" name="room_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" xr16:uid="{FB6FF469-9C8B-497F-A418-144E93D70C0E}" name="room_schema1" type="4" refreshedVersion="0" background="1">
+  <connection id="4" xr16:uid="{FB6FF469-9C8B-497F-A418-144E93D70C0E}" name="room_schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" xr16:uid="{2DB3390D-FD50-4D2B-B146-A2010068709E}" name="room_schema2" type="4" refreshedVersion="0" background="1">
+  <connection id="5" xr16:uid="{2DB3390D-FD50-4D2B-B146-A2010068709E}" name="room_schema2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" xr16:uid="{50E40BF5-6A32-41D2-885E-6B0102988C75}" name="trap_schema" type="4" refreshedVersion="0" background="1">
+  <connection id="6" xr16:uid="{50E40BF5-6A32-41D2-885E-6B0102988C75}" name="trap_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\trap_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" xr16:uid="{E5986269-AEA9-4EBF-B972-CEF844A0EB86}" name="trap_schema1" type="4" refreshedVersion="0" background="1">
+  <connection id="7" xr16:uid="{E5986269-AEA9-4EBF-B972-CEF844A0EB86}" name="trap_schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\trap_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="8" xr16:uid="{013FB4F0-B84C-470A-885E-110B0D06F79D}" name="UnitTesting_room_schema" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\UnitTestingData\UnitTesting_room_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" xr16:uid="{5A51EBAD-0BBA-42CF-B8FA-ED189B97C6FD}" name="UnitTesting_room_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\UnitTestingData\UnitTesting_room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -90,12 +100,6 @@
     <t>Armory</t>
   </si>
   <si>
-    <t>Wire Cutters</t>
-  </si>
-  <si>
-    <t>A pair of wire cutters.</t>
-  </si>
-  <si>
     <t>Main Room</t>
   </si>
   <si>
@@ -109,13 +113,73 @@
   </si>
   <si>
     <t>The far wall of the armory.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>N Room</t>
+  </si>
+  <si>
+    <t>S Room</t>
+  </si>
+  <si>
+    <t>Center Room</t>
+  </si>
+  <si>
+    <t>E Room</t>
+  </si>
+  <si>
+    <t>W Room</t>
+  </si>
+  <si>
+    <t>A wall</t>
+  </si>
+  <si>
+    <t>The North Room</t>
+  </si>
+  <si>
+    <t>The South Room</t>
+  </si>
+  <si>
+    <t>The East Room</t>
+  </si>
+  <si>
+    <t>The Center Room</t>
+  </si>
+  <si>
+    <t>The West Room</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>A large stick</t>
+  </si>
+  <si>
+    <t>A heavy mace</t>
+  </si>
+  <si>
+    <t>A small knife</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,16 +187,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,11 +218,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -159,11 +259,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -185,25 +330,6 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Item-data">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Item" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="LocationID" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema4">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Room-data">
@@ -228,26 +354,72 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="6" Name="Item-data_Map" RootElement="Item-data" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Schema ID="Schema5">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="UnitTesting-Room-data">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Room" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="nRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="eRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="wRoomID" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema6">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Item-data">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Item" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="LocationID" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="12" Name="Item-data_Map" RootElement="Item-data" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="9" Name="Room-data_Map" RootElement="Room-data" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="11" Name="UnitTesting-Room-data_Map" RootElement="UnitTesting-Room-data" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:H6" tableType="xml" totalsRowShown="0" connectionId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:H6" tableType="xml" totalsRowShown="0" connectionId="5">
   <autoFilter ref="A1:H6" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{91FD8FE9-892C-4567-B773-8894F10150AE}" uniqueName="ID" name="ID" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{91FD8FE9-892C-4567-B773-8894F10150AE}" uniqueName="ID" name="ID" dataDxfId="4">
       <xmlColumnPr mapId="9" xpath="/Room-data/Room/ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{92971961-F1E6-44D4-9926-3C2270CFC87B}" uniqueName="Name" name="Name ">
       <xmlColumnPr mapId="9" xpath="/Room-data/Room/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC6912F8-77EA-4899-9229-992382A7379F}" uniqueName="Description" name="Description" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{AC6912F8-77EA-4899-9229-992382A7379F}" uniqueName="Description" name="Description" dataDxfId="3">
       <xmlColumnPr mapId="9" xpath="/Room-data/Room/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B674794B-0724-434F-A33C-2282FB139DC6}" uniqueName="nRoomID" name="nRoomID">
@@ -271,17 +443,50 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}" name="Table2" displayName="Table2" ref="A1:C2" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C2" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}" name="Table2" displayName="Table2" ref="A1:D4" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="A1:D4" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{72BF0D12-7B32-4E3B-86E7-947970E49766}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="6" xpath="/Item-data/Item/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/Item-data/Item/Name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C18329BE-64D2-4973-BEF2-EE338068153C}" uniqueName="Description" name="Description">
-      <xmlColumnPr mapId="6" xpath="/Item-data/Item/Description" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{1B22A37A-3F3D-49DE-8483-D588BD7E6B98}" uniqueName="LocationID" name="LocationID">
-      <xmlColumnPr mapId="6" xpath="/Item-data/Item/LocationID" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/Item-data/Item/Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{1B22A37A-3F3D-49DE-8483-D588BD7E6B98}" uniqueName="Damage" name="Damage">
+      <xmlColumnPr mapId="12" xpath="/Item-data/Item/Damage" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6BBFB443-B2AA-42CF-B0B3-F7865D6D424E}" uniqueName="LocationID" name="LocationID">
+      <xmlColumnPr mapId="12" xpath="/Item-data/Item/LocationID" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30B12C85-351A-47CE-8A3A-337503A77241}" name="Table3" displayName="Table3" ref="A1:G7" tableType="xml" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" connectionId="9">
+  <autoFilter ref="A1:G7" xr:uid="{30B12C85-351A-47CE-8A3A-337503A77241}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CFA854FF-7EF0-4386-96B3-E10CB6B743C0}" uniqueName="ID" name="ID">
+      <xmlColumnPr mapId="11" xpath="/UnitTesting-Room-data/Room/ID" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{AC39E627-50DE-4753-8F23-A5839A91CC93}" uniqueName="Name" name="Name ">
+      <xmlColumnPr mapId="11" xpath="/UnitTesting-Room-data/Room/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{814C0E79-9B4F-4FBE-AA6E-40E39D320E60}" uniqueName="Description" name="Description">
+      <xmlColumnPr mapId="11" xpath="/UnitTesting-Room-data/Room/Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{79858A0D-0F9B-49F6-A87B-8C2D00076721}" uniqueName="nRoomID" name="nRoomID">
+      <xmlColumnPr mapId="11" xpath="/UnitTesting-Room-data/Room/nRoomID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{31F77FDB-2972-45F7-B419-3198424B3B00}" uniqueName="sRoomID" name="sRoomID">
+      <xmlColumnPr mapId="11" xpath="/UnitTesting-Room-data/Room/sRoomID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{786462BE-ECFA-44E1-B18C-E8BAC5C78412}" uniqueName="eRoomID" name="eRoomID">
+      <xmlColumnPr mapId="11" xpath="/UnitTesting-Room-data/Room/eRoomID" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C808DD8D-916F-4DE7-A6BA-D84C1A23DC6F}" uniqueName="wRoomID" name="wRoomID">
+      <xmlColumnPr mapId="11" xpath="/UnitTesting-Room-data/Room/wRoomID" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -553,24 +758,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -596,7 +801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -622,18 +827,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -641,47 +846,47 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="70.150000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="71.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="61.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="55.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="49.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="85.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="55.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="46.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="63" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="56.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="51.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="55.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="76.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="85.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="55.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="45.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="46.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="63" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="51.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -692,20 +897,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88530C06-13D6-4395-8D77-2941F18E7D74}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -713,18 +919,240 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A506C289-1136-4C1C-92A7-B90125B42798}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Week 3 Assignment_Simple Text File and Linked Lists/data/Data Sheet.xlsx
+++ b/Week 3 Assignment_Simple Text File and Linked Lists/data/Data Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191AFFF-225F-4B8E-982E-8A4EEBB2D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6E34D7-17E3-4511-AD02-E61F2B6651DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,32 +34,44 @@
   <connection id="2" xr16:uid="{6BD4C010-9A68-4078-BCCB-50E9E1DC129B}" name="item_schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\Schema\item_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" xr16:uid="{EB932CA5-92BA-46AE-82AA-E9F012A5E1C2}" name="room_schema" type="4" refreshedVersion="0" background="1">
+  <connection id="3" xr16:uid="{10BF8072-FDF2-4F71-BF71-678EB1E4EEF2}" name="item_schema2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\Schema\item_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" xr16:uid="{824EC362-29FE-4657-8BE7-3B8C598AF16D}" name="item_schema3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\Schema\item_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" xr16:uid="{AD2802FB-73CD-4762-8140-610E849E0424}" name="item_schema4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\Schema\item_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="6" xr16:uid="{EB932CA5-92BA-46AE-82AA-E9F012A5E1C2}" name="room_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" xr16:uid="{FB6FF469-9C8B-497F-A418-144E93D70C0E}" name="room_schema1" type="4" refreshedVersion="0" background="1">
+  <connection id="7" xr16:uid="{FB6FF469-9C8B-497F-A418-144E93D70C0E}" name="room_schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" xr16:uid="{2DB3390D-FD50-4D2B-B146-A2010068709E}" name="room_schema2" type="4" refreshedVersion="0" background="1">
+  <connection id="8" xr16:uid="{2DB3390D-FD50-4D2B-B146-A2010068709E}" name="room_schema2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" xr16:uid="{50E40BF5-6A32-41D2-885E-6B0102988C75}" name="trap_schema" type="4" refreshedVersion="0" background="1">
+  <connection id="9" xr16:uid="{A16421E6-00AD-4B54-94F3-F2CB012835CF}" name="room_schema3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\Schema\room_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="10" xr16:uid="{50E40BF5-6A32-41D2-885E-6B0102988C75}" name="trap_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\trap_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" xr16:uid="{E5986269-AEA9-4EBF-B972-CEF844A0EB86}" name="trap_schema1" type="4" refreshedVersion="0" background="1">
+  <connection id="11" xr16:uid="{E5986269-AEA9-4EBF-B972-CEF844A0EB86}" name="trap_schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-340-GraphicsApplicationProgramming\Week 1 Assignment - Dungeon Crawler\data\Schema\trap_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" xr16:uid="{013FB4F0-B84C-470A-885E-110B0D06F79D}" name="UnitTesting_room_schema" type="4" refreshedVersion="0" background="1">
+  <connection id="12" xr16:uid="{013FB4F0-B84C-470A-885E-110B0D06F79D}" name="UnitTesting_room_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\UnitTestingData\UnitTesting_room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" xr16:uid="{5A51EBAD-0BBA-42CF-B8FA-ED189B97C6FD}" name="UnitTesting_room_schema1" type="4" refreshedVersion="0" background="1">
+  <connection id="13" xr16:uid="{5A51EBAD-0BBA-42CF-B8FA-ED189B97C6FD}" name="UnitTesting_room_schema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\nemo1\source\repos\Glareyo\Prog-206-Assignments\Week 3 Assignment_Simple Text File and Linked Lists\data\UnitTestingData\UnitTesting_room_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -91,88 +103,136 @@
     <t>Name</t>
   </si>
   <si>
-    <t>LocationID</t>
-  </si>
-  <si>
-    <t>trapID</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>N Room</t>
+  </si>
+  <si>
+    <t>S Room</t>
+  </si>
+  <si>
+    <t>Center Room</t>
+  </si>
+  <si>
+    <t>E Room</t>
+  </si>
+  <si>
+    <t>W Room</t>
+  </si>
+  <si>
+    <t>A wall</t>
+  </si>
+  <si>
+    <t>The North Room</t>
+  </si>
+  <si>
+    <t>The South Room</t>
+  </si>
+  <si>
+    <t>The East Room</t>
+  </si>
+  <si>
+    <t>The Center Room</t>
+  </si>
+  <si>
+    <t>The West Room</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>A large stick</t>
+  </si>
+  <si>
+    <t>A heavy mace</t>
+  </si>
+  <si>
+    <t>A small knife</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>A large drawbridge gate leading to a courtyard</t>
+  </si>
+  <si>
+    <t>Courtyard</t>
+  </si>
+  <si>
+    <t>Tower Entry</t>
+  </si>
+  <si>
+    <t>Tower Stairs</t>
+  </si>
+  <si>
+    <t>Tower Top</t>
   </si>
   <si>
     <t>Armory</t>
   </si>
   <si>
-    <t>Main Room</t>
-  </si>
-  <si>
-    <t>The main room leading to all the other dungeons.</t>
-  </si>
-  <si>
-    <t>A large room filled with armors and weapons.</t>
-  </si>
-  <si>
-    <t>Armory, Far Wall</t>
-  </si>
-  <si>
-    <t>The far wall of the armory.</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>N Room</t>
-  </si>
-  <si>
-    <t>S Room</t>
-  </si>
-  <si>
-    <t>Center Room</t>
-  </si>
-  <si>
-    <t>E Room</t>
-  </si>
-  <si>
-    <t>W Room</t>
-  </si>
-  <si>
-    <t>A wall</t>
-  </si>
-  <si>
-    <t>The North Room</t>
-  </si>
-  <si>
-    <t>The South Room</t>
-  </si>
-  <si>
-    <t>The East Room</t>
-  </si>
-  <si>
-    <t>The Center Room</t>
-  </si>
-  <si>
-    <t>The West Room</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>Stick</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>A large stick</t>
-  </si>
-  <si>
-    <t>A heavy mace</t>
-  </si>
-  <si>
-    <t>A small knife</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Castle Entrance</t>
+  </si>
+  <si>
+    <t>Guard Room</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>A large courtyard with destroyed battle equipment.</t>
+  </si>
+  <si>
+    <t>A small stairway leading to a tall tower.</t>
+  </si>
+  <si>
+    <t>A long set of spiraling stairs leading to the top of the tower.</t>
+  </si>
+  <si>
+    <t>The top of the tower, with wood floorings and a sweeping view of the land around.</t>
+  </si>
+  <si>
+    <t>A large room filled with armors and ancient weaponry.</t>
+  </si>
+  <si>
+    <t>A large, double door entry way leading to a massive castle.</t>
+  </si>
+  <si>
+    <t>A small tower filled with bunk beds and tables.</t>
+  </si>
+  <si>
+    <t>A large castle, the interior is massive and filled with benches and tables, and a single red, long carpet.</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>A thick glass bottle</t>
+  </si>
+  <si>
+    <t>Cannon</t>
+  </si>
+  <si>
+    <t>A hand-held Cannon</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>A rusty sword</t>
   </si>
 </sst>
 </file>
@@ -330,30 +390,6 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema4">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Room-data">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Room" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="nRoomID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sRoomID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="eRoomID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="wRoomID" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="trapID" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema5">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="UnitTesting-Room-data">
@@ -377,7 +413,30 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema6">
+  <Schema ID="Schema7">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Room-data">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Room" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="nRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="sRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="eRoomID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="wRoomID" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema4">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Item-data">
         <xsd:complexType>
@@ -388,7 +447,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Damage" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="LocationID" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Duration" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -397,45 +456,42 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="12" Name="Item-data_Map" RootElement="Item-data" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
-  </Map>
-  <Map ID="9" Name="Room-data_Map" RootElement="Room-data" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+  <Map ID="20" Name="Item-data_Map" RootElement="Item-data" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
   </Map>
+  <Map ID="15" Name="Room-data_Map" RootElement="Room-data" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
+  </Map>
   <Map ID="11" Name="UnitTesting-Room-data_Map" RootElement="UnitTesting-Room-data" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="9" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="13" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:H6" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="A1:H6" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}" name="Table1" displayName="Table1" ref="A1:G11" tableType="xml" totalsRowShown="0" connectionId="9">
+  <autoFilter ref="A1:G11" xr:uid="{33C7C18A-8ED5-40AC-87CA-DF359B1674B0}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{91FD8FE9-892C-4567-B773-8894F10150AE}" uniqueName="ID" name="ID" dataDxfId="4">
-      <xmlColumnPr mapId="9" xpath="/Room-data/Room/ID" xmlDataType="string"/>
+      <xmlColumnPr mapId="15" xpath="/Room-data/Room/ID" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{92971961-F1E6-44D4-9926-3C2270CFC87B}" uniqueName="Name" name="Name ">
-      <xmlColumnPr mapId="9" xpath="/Room-data/Room/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="15" xpath="/Room-data/Room/Name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{AC6912F8-77EA-4899-9229-992382A7379F}" uniqueName="Description" name="Description" dataDxfId="3">
-      <xmlColumnPr mapId="9" xpath="/Room-data/Room/Description" xmlDataType="string"/>
+      <xmlColumnPr mapId="15" xpath="/Room-data/Room/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B674794B-0724-434F-A33C-2282FB139DC6}" uniqueName="nRoomID" name="nRoomID">
-      <xmlColumnPr mapId="9" xpath="/Room-data/Room/nRoomID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="15" xpath="/Room-data/Room/nRoomID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{DC15F04F-D01A-47DB-BFB4-1696398B05A5}" uniqueName="sRoomID" name="sRoomID">
-      <xmlColumnPr mapId="9" xpath="/Room-data/Room/sRoomID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="15" xpath="/Room-data/Room/sRoomID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{1FD8AEFE-A6EF-4F94-81E8-8A1AEA205321}" uniqueName="eRoomID" name="eRoomID">
-      <xmlColumnPr mapId="9" xpath="/Room-data/Room/eRoomID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="15" xpath="/Room-data/Room/eRoomID" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{11C53ADA-0ADA-4C4B-A9A0-679532DF07BA}" uniqueName="wRoomID" name="wRoomID">
-      <xmlColumnPr mapId="9" xpath="/Room-data/Room/wRoomID" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{94A23AD5-60B4-4BE8-91BE-47395C899171}" uniqueName="trapID" name="trapID">
-      <xmlColumnPr mapId="9" xpath="/Room-data/Room/trapID" xmlDataType="integer"/>
+      <xmlColumnPr mapId="15" xpath="/Room-data/Room/wRoomID" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -443,20 +499,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}" name="Table2" displayName="Table2" ref="A1:D4" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="A1:D4" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}" name="Table2" displayName="Table2" ref="A1:D7" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="A1:D7" xr:uid="{61E3FEA6-0EE3-4067-A678-43359193BFC4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{72BF0D12-7B32-4E3B-86E7-947970E49766}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="12" xpath="/Item-data/Item/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/Item-data/Item/Name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C18329BE-64D2-4973-BEF2-EE338068153C}" uniqueName="Description" name="Description">
-      <xmlColumnPr mapId="12" xpath="/Item-data/Item/Description" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/Item-data/Item/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1B22A37A-3F3D-49DE-8483-D588BD7E6B98}" uniqueName="Damage" name="Damage">
-      <xmlColumnPr mapId="12" xpath="/Item-data/Item/Damage" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{6BBFB443-B2AA-42CF-B0B3-F7865D6D424E}" uniqueName="LocationID" name="LocationID">
-      <xmlColumnPr mapId="12" xpath="/Item-data/Item/LocationID" xmlDataType="string"/>
+      <xmlColumnPr mapId="20" xpath="/Item-data/Item/Damage" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6BBFB443-B2AA-42CF-B0B3-F7865D6D424E}" uniqueName="Duration" name="Duration">
+      <xmlColumnPr mapId="20" xpath="/Item-data/Item/Duration" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -464,7 +520,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30B12C85-351A-47CE-8A3A-337503A77241}" name="Table3" displayName="Table3" ref="A1:G7" tableType="xml" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" connectionId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{30B12C85-351A-47CE-8A3A-337503A77241}" name="Table3" displayName="Table3" ref="A1:G7" tableType="xml" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0" connectionId="13">
   <autoFilter ref="A1:G7" xr:uid="{30B12C85-351A-47CE-8A3A-337503A77241}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CFA854FF-7EF0-4386-96B3-E10CB6B743C0}" uniqueName="ID" name="ID">
@@ -756,17 +812,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="5" max="7" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
@@ -775,7 +831,7 @@
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -797,11 +853,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -823,58 +876,219 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    </row>
+    <row r="3" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    </row>
+    <row r="5" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" ht="52.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" ht="60.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" ht="61.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="55.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="61.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -897,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88530C06-13D6-4395-8D77-2941F18E7D74}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,6 +1123,7 @@
     <col min="2" max="2" width="32.88671875" customWidth="1"/>
     <col min="3" max="3" width="30.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -919,52 +1134,94 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1019,13 +1276,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1045,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1068,10 +1325,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1091,10 +1348,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1114,10 +1371,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1137,10 +1394,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0</v>
